--- a/Danone Spain Yogurt Dataset.xlsx
+++ b/Danone Spain Yogurt Dataset.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\AleaaSALAH\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\BW4SA\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC12E41-3CD9-4442-9EAC-9322CFEE8B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE7D514-3607-4891-B869-2D1DB1C1F6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1980" yWindow="1980" windowWidth="15360" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danone Spain Yogurt Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="27638" r:id="rId2"/>
+    <pivotCache cacheId="25624" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,8 +55,8 @@
   <metadataStrings count="7">
     <s v="pbiazure://api.powerbi.com 3b907122-f157-438a-af00-83548ea81272 Model"/>
     <s v="{[Market].[Market].[All]}"/>
+    <s v="{[Market].[Channel].[All]}"/>
     <s v="{[Scope].[Scope].[All]}"/>
-    <s v="{[Market].[Channel].[All]}"/>
     <s v="{[Market].[Area].&amp;[MERCADONA]}"/>
     <s v="{[Market].[Region].&amp;[Mercadona]}"/>
     <s v="{[Products].[Top Companies].&amp;[Danone Group]}"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Aleaa SALAH" refreshedDate="45818.935538425925" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="BW4SA" refreshedDate="45866.444199884259" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="9">
     <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="82" level="1">
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="27638" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="25624" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A16:C61" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="6" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -6892,7 +6892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -6938,7 +6938,7 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s" vm="2">
+      <c r="B10" t="s" vm="3">
         <v>1</v>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s" vm="3">
+      <c r="B13" t="s" vm="2">
         <v>1</v>
       </c>
     </row>
